--- a/May'21/10.05.2021/Daily Sales Info.xlsx
+++ b/May'21/10.05.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="65">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Commi</t>
+  </si>
+  <si>
+    <t>Date:11.05.2021</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,6 +1027,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14802,9 +14808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15425,8 +15431,8 @@
       <c r="B13" s="20">
         <v>1908446140</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>29</v>
+      <c r="C13" s="20">
+        <v>5</v>
       </c>
       <c r="D13" s="29">
         <v>8363</v>
@@ -16733,9 +16739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16798,7 +16804,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="85"/>
@@ -17243,7 +17249,9 @@
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29">
+        <v>5</v>
+      </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -17254,29 +17262,29 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8624999999999998</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -17335,7 +17343,9 @@
       <c r="C15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="29">
+        <v>1474</v>
+      </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -17346,29 +17356,29 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40.535000000000004</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1433.4649999999999</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14.003</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14.003</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -17931,7 +17941,7 @@
       <c r="C28" s="75"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -17967,15 +17977,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40.672500000000007</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -17987,15 +17997,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1438.3274999999999</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14.0505</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14.0505</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18006,7 +18016,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -18378,7 +18388,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
@@ -19556,7 +19566,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -19928,7 +19938,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
@@ -21106,7 +21116,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -21478,7 +21488,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
@@ -22656,7 +22666,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -23028,7 +23038,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
@@ -24206,7 +24216,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -24578,7 +24588,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
@@ -25756,7 +25766,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -26128,7 +26138,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
@@ -27306,7 +27316,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -27678,7 +27688,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
@@ -28856,7 +28866,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -29228,7 +29238,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
@@ -30406,7 +30416,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -30684,8 +30694,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31317,7 +31327,7 @@
       <c r="B15" s="20">
         <v>1908446142</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="99" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="29">
@@ -32447,7 +32457,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
@@ -33625,7 +33635,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -33997,7 +34007,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
@@ -35175,7 +35185,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -35547,7 +35557,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
@@ -36725,7 +36735,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -37097,7 +37107,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
@@ -38275,7 +38285,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -38647,7 +38657,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -39825,7 +39835,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -40197,7 +40207,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -41375,7 +41385,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -41747,7 +41757,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -42925,7 +42935,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -43297,7 +43307,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -44475,7 +44485,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -44847,7 +44857,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -46025,7 +46035,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -46397,7 +46407,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -47575,7 +47585,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -47853,8 +47863,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48573,8 +48583,8 @@
       <c r="B16" s="20">
         <v>1908446143</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>32</v>
+      <c r="C16" s="55">
+        <v>28</v>
       </c>
       <c r="D16" s="29">
         <v>11922</v>
@@ -49657,7 +49667,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -50835,7 +50845,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -51207,7 +51217,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -52385,7 +52395,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -52662,8 +52672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53379,7 +53389,7 @@
       </c>
       <c r="D13" s="21">
         <f>'2'!D13+'1'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>45400</v>
+        <v>45405</v>
       </c>
       <c r="E13" s="21">
         <f>'2'!E13+'1'!E13+'3'!E13+'4'!E13+'5'!E13+'6'!E13+'7'!E13+'8'!E13+'9'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
@@ -53415,15 +53425,15 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>47290</v>
+        <v>47295</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>49200</v>
+        <v>49205</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>1300.4749999999999</v>
+        <v>1300.6125</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
@@ -53432,15 +53442,15 @@
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>47478.525000000001</v>
+        <v>47483.387499999997</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>449.255</v>
+        <v>449.30250000000001</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>28.254999999999995</v>
+        <v>28.302500000000009</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53531,7 +53541,7 @@
       </c>
       <c r="D15" s="21">
         <f>'2'!D15+'1'!D15+'3'!D15+'4'!D15+'5'!D15+'6'!D15+'7'!D15+'8'!D15+'9'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>166441</v>
+        <v>167915</v>
       </c>
       <c r="E15" s="21">
         <f>'2'!E15+'1'!E15+'3'!E15+'4'!E15+'5'!E15+'6'!E15+'7'!E15+'8'!E15+'9'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
@@ -53567,15 +53577,15 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>177311</v>
+        <v>178785</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>188618</v>
+        <v>190092</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>4876.0524999999998</v>
+        <v>4916.5874999999996</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
@@ -53584,15 +53594,15 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>182301.94750000001</v>
+        <v>183735.41250000001</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>1684.4545000000001</v>
+        <v>1698.4575</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>244.45450000000005</v>
+        <v>258.45749999999998</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54515,7 +54525,7 @@
       <c r="C28" s="75"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>2261083</v>
+        <v>2262562</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -54551,15 +54561,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>2515343</v>
+        <v>2516822</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>2719538</v>
+        <v>2721017</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>69171.932499999995</v>
+        <v>69212.604999999996</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54571,15 +54581,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>2631444.0674999999</v>
+        <v>2632882.3949999996</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>23895.758499999996</v>
+        <v>23909.808999999997</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>4973.7584999999981</v>
+        <v>4987.8089999999993</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54590,7 +54600,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>1144069</v>
+        <v>1142590</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -54864,8 +54874,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56585,8 +56595,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58320,8 +58330,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60023,8 +60033,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="A18:XFD18"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -63448,9 +63458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
